--- a/Structure/1 - Whole System/EnBalanceDataTWh.xlsx
+++ b/Structure/1 - Whole System/EnBalanceDataTWh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/1 - Whole System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0D8D4337-32E8-4162-B0C8-E1B4AB140BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{960C59D6-3E39-4271-808F-FCF679F72810}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{0D8D4337-32E8-4162-B0C8-E1B4AB140BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{11D48D4C-BCCE-431E-8310-AFA7C1AD8FB4}"/>
   <bookViews>
-    <workbookView xWindow="-5490" yWindow="8960" windowWidth="14400" windowHeight="7670" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Gross calorific values</t>
   </si>
   <si>
-    <t>Thousand tonnes of oil equivalent</t>
-  </si>
-  <si>
     <t>Coal</t>
   </si>
   <si>
@@ -138,7 +135,10 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Aggregate energy balance (thousand tonnes of oil equivalent), Scotland, 2018</t>
+    <t>Aggregate energy balance (TWh), Scotland, 2018</t>
+  </si>
+  <si>
+    <t>TWh</t>
   </si>
 </sst>
 </file>
@@ -244,7 +244,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -272,22 +272,8 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -608,13 +594,13 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="72.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
     <col min="3" max="3" width="14.26953125" customWidth="1"/>
     <col min="4" max="4" width="21.26953125" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" customWidth="1"/>
@@ -627,7 +613,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -651,43 +637,43 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -701,770 +687,770 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="15">
-        <v>401.93995414158786</v>
-      </c>
-      <c r="C5" s="15">
-        <v>52926.146686182503</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="16">
+        <v>4.6745616666666674</v>
+      </c>
+      <c r="C5" s="16">
+        <v>615.53108596030256</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="16">
-        <v>24122.958278160062</v>
+        <v>280.55000477500158</v>
       </c>
       <c r="F5" s="16">
-        <v>757.20375649635287</v>
-      </c>
-      <c r="G5" s="15">
-        <v>5034.0136633455586</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="15">
-        <v>83242.262338326065</v>
+        <v>8.8062796880525855</v>
+      </c>
+      <c r="G5" s="16">
+        <v>58.545578904708854</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="16">
+        <v>968.10751099473225</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="15">
-        <v>3.3916809974204643E-5</v>
-      </c>
-      <c r="C6" s="15">
-        <v>6090.2525177746411</v>
-      </c>
-      <c r="D6" s="15">
-        <v>3176.6055366253076</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="16">
+        <v>3.9445250000000006E-7</v>
+      </c>
+      <c r="C6" s="16">
+        <v>70.829636781719088</v>
+      </c>
+      <c r="D6" s="16">
+        <v>36.943922390952331</v>
       </c>
       <c r="E6" s="16">
-        <v>14063.185452902055</v>
+        <v>163.5548468172509</v>
       </c>
       <c r="F6" s="16">
-        <v>241.11632141442743</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="15">
-        <v>99.635167669819978</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="15">
-        <v>23670.795030303067</v>
+        <v>2.8041828180497914</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1.1587570000000065</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="16">
+        <v>275.29134620242468</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="13">
-        <v>6090.2525177746411</v>
-      </c>
-      <c r="D7" s="13">
-        <v>2446.5685462545644</v>
-      </c>
-      <c r="E7" s="13">
-        <v>14051.762682717188</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="16">
+        <v>70.829636781719088</v>
+      </c>
+      <c r="D7" s="16">
+        <v>28.453592192940587</v>
+      </c>
+      <c r="E7" s="16">
+        <v>163.42200000000091</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13">
+        <v>15</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16">
         <v>0</v>
       </c>
-      <c r="D8" s="13">
-        <v>730.03699037074352</v>
-      </c>
-      <c r="E8" s="17">
-        <v>11.422770184866787</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="13">
-        <v>99.635167669819978</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>13</v>
+      <c r="D8" s="16">
+        <v>8.4903301980117476</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.13284681725000075</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1.1587570000000065</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="15">
-        <v>-275.65451944274798</v>
-      </c>
-      <c r="C9" s="15">
-        <v>-47955.704136857777</v>
-      </c>
-      <c r="D9" s="15">
-        <v>-5979.4983924660055</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="16">
+        <v>-3.2058620611191593</v>
+      </c>
+      <c r="C9" s="16">
+        <v>-557.72483911165602</v>
+      </c>
+      <c r="D9" s="16">
+        <v>-69.541566304379657</v>
       </c>
       <c r="E9" s="16">
-        <v>-28722.282377307893</v>
+        <v>-334.04014404809084</v>
       </c>
       <c r="F9" s="16">
-        <v>-16.021582286988252</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="15">
-        <v>-1261.8843508168598</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="15">
-        <v>-84211.045359178286</v>
+        <v>-0.18633100199767338</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="16">
+        <v>-14.67571500000008</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="16">
+        <v>-979.37445752724364</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="13">
-        <v>-22787.404014714884</v>
-      </c>
-      <c r="D10" s="13">
-        <v>-5596.7122406302451</v>
-      </c>
-      <c r="E10" s="17">
-        <v>-1679.1112652649533</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="16">
+        <v>-265.01750869113414</v>
+      </c>
+      <c r="D10" s="16">
+        <v>-65.089763358529765</v>
+      </c>
+      <c r="E10" s="16">
+        <v>-19.528064015031408</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="13">
-        <v>-25168.300122142897</v>
-      </c>
-      <c r="D11" s="13">
-        <v>-382.78615183576028</v>
-      </c>
-      <c r="E11" s="17">
-        <v>-27043.171112042939</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="13">
-        <v>-1261.8843508168598</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="16">
+        <v>-292.70733042052194</v>
+      </c>
+      <c r="D11" s="16">
+        <v>-4.4518029458498924</v>
+      </c>
+      <c r="E11" s="16">
+        <v>-314.51208003305942</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="16">
+        <v>-14.67571500000008</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="15">
-        <v>-1002.590149267652</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="16">
+        <v>-11.660123435982793</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="15">
-        <v>-1002.590149267652</v>
+        <v>12</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="16">
+        <v>-11.660123435982793</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.52160412830164971</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.52009219602833945</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="16">
+        <v>1.0416963243299893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="15">
-        <v>0</v>
-      </c>
-      <c r="C13" s="15">
-        <v>44.849882055171939</v>
-      </c>
-      <c r="D13" s="15">
-        <v>44.719879280166758</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="15">
-        <v>89.569761335338697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="19">
-        <v>126.28546861564988</v>
-      </c>
-      <c r="C14" s="19">
-        <v>11105.544949154541</v>
-      </c>
-      <c r="D14" s="19">
-        <v>-3760.7631258281831</v>
-      </c>
-      <c r="E14" s="20">
-        <v>9463.861353754226</v>
-      </c>
-      <c r="F14" s="20">
-        <v>981.73236197407516</v>
-      </c>
-      <c r="G14" s="19">
-        <v>5034.0136633455586</v>
-      </c>
-      <c r="H14" s="19">
-        <v>-1162.2491831470397</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="19">
-        <v>21788.425487868826</v>
+      <c r="B14" s="16">
+        <v>1.4687000000000083</v>
+      </c>
+      <c r="C14" s="16">
+        <v>129.15748775866732</v>
+      </c>
+      <c r="D14" s="16">
+        <v>-43.737675153381772</v>
+      </c>
+      <c r="E14" s="16">
+        <v>110.06470754416166</v>
+      </c>
+      <c r="F14" s="16">
+        <v>11.417547369758495</v>
+      </c>
+      <c r="G14" s="16">
+        <v>58.545578904708854</v>
+      </c>
+      <c r="H14" s="16">
+        <v>-13.516958000000074</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="16">
+        <v>253.39938842391447</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="15">
+        <v>20</v>
+      </c>
+      <c r="B15" s="16">
         <v>0</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="16">
         <v>0</v>
       </c>
-      <c r="D15" s="19">
-        <v>-1.1240450149512071</v>
+      <c r="D15" s="16">
+        <v>-1.307264352388254E-2</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="15">
+        <v>12</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="16">
         <v>0</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="15">
-        <v>-1.1240450149512071</v>
+      <c r="I15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="16">
+        <v>-1.307264352388254E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="19">
-        <v>126.28546861564988</v>
-      </c>
-      <c r="C16" s="19">
-        <v>11105.544949154537</v>
-      </c>
-      <c r="D16" s="19">
-        <v>-3761.8871708431343</v>
-      </c>
-      <c r="E16" s="20">
-        <v>9463.8613537542296</v>
-      </c>
-      <c r="F16" s="20">
-        <v>981.73236197407516</v>
-      </c>
-      <c r="G16" s="19">
-        <v>5034.0136633455586</v>
-      </c>
-      <c r="H16" s="19">
-        <v>-1162.2491831470397</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="19">
-        <v>21787.301442853874</v>
+      <c r="A16" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="16">
+        <v>1.4687000000000083</v>
+      </c>
+      <c r="C16" s="16">
+        <v>129.15748775866729</v>
+      </c>
+      <c r="D16" s="16">
+        <v>-43.750747796905657</v>
+      </c>
+      <c r="E16" s="16">
+        <v>110.06470754416171</v>
+      </c>
+      <c r="F16" s="16">
+        <v>11.417547369758495</v>
+      </c>
+      <c r="G16" s="16">
+        <v>58.545578904708854</v>
+      </c>
+      <c r="H16" s="16">
+        <v>-13.516958000000074</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="16">
+        <v>253.38631578039059</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="15">
-        <v>-1930.4810265331166</v>
-      </c>
-      <c r="D17" s="15">
-        <v>1930.4810265331166</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="16">
+        <v>-22.451494338580147</v>
+      </c>
+      <c r="D17" s="16">
+        <v>22.451494338580147</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="15">
-        <v>-2092.7724080189364</v>
-      </c>
-      <c r="H17" s="15">
-        <v>2092.7724080189364</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="15">
+        <v>12</v>
+      </c>
+      <c r="G17" s="16">
+        <v>-24.338943105260235</v>
+      </c>
+      <c r="H17" s="16">
+        <v>24.338943105260235</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="15">
+        <v>23</v>
+      </c>
+      <c r="B18" s="16">
         <v>0</v>
       </c>
-      <c r="C18" s="15">
-        <v>-9175.0639226214207</v>
-      </c>
-      <c r="D18" s="15">
-        <v>8940.7948701448513</v>
-      </c>
-      <c r="E18" s="15">
-        <v>-1478.3858772496594</v>
-      </c>
-      <c r="F18" s="15">
-        <v>-544.66443420107191</v>
-      </c>
-      <c r="G18" s="15">
-        <v>-2941.2412553266217</v>
-      </c>
-      <c r="H18" s="15">
-        <v>2054.8110221894326</v>
-      </c>
-      <c r="I18" s="15">
-        <v>118.85195238779175</v>
-      </c>
-      <c r="J18" s="15">
-        <v>-3024.8976446766983</v>
+      <c r="C18" s="16">
+        <v>-106.70599342008714</v>
+      </c>
+      <c r="D18" s="16">
+        <v>103.98144433978463</v>
+      </c>
+      <c r="E18" s="16">
+        <v>-17.193627752413541</v>
+      </c>
+      <c r="F18" s="16">
+        <v>-6.3344473697584673</v>
+      </c>
+      <c r="G18" s="16">
+        <v>-34.206635799448613</v>
+      </c>
+      <c r="H18" s="16">
+        <v>23.897452188063106</v>
+      </c>
+      <c r="I18" s="16">
+        <v>1.3822482062700183</v>
+      </c>
+      <c r="J18" s="16">
+        <v>-35.179559607590008</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="13">
+        <v>24</v>
+      </c>
+      <c r="B19" s="16">
         <v>0</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="13">
-        <v>-122.20203054151465</v>
-      </c>
-      <c r="E19" s="13">
-        <v>-1296.428062330529</v>
-      </c>
-      <c r="F19" s="13">
-        <v>-533.195107588528</v>
-      </c>
-      <c r="G19" s="13">
-        <v>-2941.2412553266217</v>
-      </c>
-      <c r="H19" s="13">
-        <v>2054.8110221894326</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="13">
-        <v>-2838.2554335977607</v>
+      <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="16">
+        <v>-1.4212096151978155</v>
+      </c>
+      <c r="E19" s="16">
+        <v>-15.077458364904054</v>
+      </c>
+      <c r="F19" s="16">
+        <v>-6.2010591012545815</v>
+      </c>
+      <c r="G19" s="16">
+        <v>-34.206635799448613</v>
+      </c>
+      <c r="H19" s="16">
+        <v>23.897452188063106</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="16">
+        <v>-33.008910692741964</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="13">
-        <v>-9175.0639226214207</v>
-      </c>
-      <c r="D20" s="13">
-        <v>9125.3215529965692</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="13">
-        <v>-49.742369624851563</v>
+        <v>25</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="16">
+        <v>-106.70599342008714</v>
+      </c>
+      <c r="D20" s="16">
+        <v>106.12748966135011</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="16">
+        <v>-0.57850375873702375</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="13">
+        <v>26</v>
+      </c>
+      <c r="B21" s="16">
         <v>0</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="13">
-        <v>-62.324652310203362</v>
-      </c>
-      <c r="E21" s="13">
-        <v>-181.95781491913053</v>
-      </c>
-      <c r="F21" s="13">
-        <v>-11.46932661254391</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="13">
-        <v>118.85195238779175</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-136.89984145408604</v>
+      <c r="C21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="16">
+        <v>-0.72483570636766514</v>
+      </c>
+      <c r="E21" s="16">
+        <v>-2.1161693875094882</v>
+      </c>
+      <c r="F21" s="16">
+        <v>-0.13338826850388569</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="16">
+        <v>1.3822482062700183</v>
+      </c>
+      <c r="J21" s="16">
+        <v>-1.5921451561110209</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="16">
+        <v>6.7670684861746873</v>
+      </c>
+      <c r="E22" s="16">
+        <v>43.747276896362408</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="16">
+        <v>5.0080544236480504</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0.35534820627001246</v>
+      </c>
+      <c r="J22" s="16">
+        <v>55.877748012455157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="15">
-        <v>581.86315444322327</v>
-      </c>
-      <c r="E22" s="15">
-        <v>3761.5887271162856</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="15">
-        <v>430.6151697031857</v>
-      </c>
-      <c r="I22" s="15">
-        <v>30.554445938952057</v>
-      </c>
-      <c r="J22" s="15">
-        <v>4804.6214972016469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="19">
-        <v>126.28546861564988</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="19">
-        <v>6527.5255713916094</v>
-      </c>
-      <c r="E23" s="19">
-        <v>4223.8867493882835</v>
-      </c>
-      <c r="F23" s="19">
-        <v>437.06792777300325</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="19">
-        <v>2554.7190773581437</v>
-      </c>
-      <c r="I23" s="19">
-        <v>88.297506448839698</v>
-      </c>
-      <c r="J23" s="19">
-        <v>13957.78230097553</v>
+      <c r="B23" s="16">
+        <v>1.4687000000000083</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="16">
+        <v>75.915122395284428</v>
+      </c>
+      <c r="E23" s="16">
+        <v>49.123802895385744</v>
+      </c>
+      <c r="F23" s="16">
+        <v>5.0831000000000284</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="16">
+        <v>29.711382869675216</v>
+      </c>
+      <c r="I23" s="16">
+        <v>1.0269000000000059</v>
+      </c>
+      <c r="J23" s="16">
+        <v>162.32900816034544</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="13">
-        <v>1125.2647513822537</v>
-      </c>
-      <c r="E24" s="13">
-        <v>59.263883971473689</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="13">
-        <v>52.619899118795843</v>
-      </c>
-      <c r="J24" s="13">
-        <v>1237.1485344725234</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="16">
+        <v>13.086829058575612</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.68923897058823913</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0.61196942675159571</v>
+      </c>
+      <c r="J24" s="16">
+        <v>14.388037455915448</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="13">
-        <v>80.37196056133088</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="13">
-        <v>177.56837512603184</v>
-      </c>
-      <c r="E25" s="13">
-        <v>935.55392882101103</v>
-      </c>
-      <c r="F25" s="13">
-        <v>98.132461902953565</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="13">
-        <v>714.94006808840356</v>
-      </c>
-      <c r="I25" s="13">
-        <v>9.4953201417375954</v>
-      </c>
-      <c r="J25" s="13">
-        <v>2016.0621146414685</v>
+        <v>30</v>
+      </c>
+      <c r="B25" s="16">
+        <v>0.93472590132827826</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="16">
+        <v>2.0651202027157507</v>
+      </c>
+      <c r="E25" s="16">
+        <v>10.88049219218836</v>
+      </c>
+      <c r="F25" s="16">
+        <v>1.1412805319313502</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="16">
+        <v>8.3147529918681347</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0.11043057324840824</v>
+      </c>
+      <c r="J25" s="16">
+        <v>23.446802393280283</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="13">
-        <v>43.430782459157591</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="13">
-        <v>263.14447083901541</v>
-      </c>
-      <c r="E26" s="13">
-        <v>2355.44966903881</v>
-      </c>
-      <c r="F26" s="13">
-        <v>160.10730182375826</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="13">
-        <v>1059.1373970396792</v>
-      </c>
-      <c r="I26" s="13">
-        <v>26.182287188306248</v>
-      </c>
-      <c r="J26" s="13">
-        <v>3907.4519083887267</v>
+        <v>31</v>
+      </c>
+      <c r="B26" s="16">
+        <v>0.50510000000000288</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="16">
+        <v>3.0603701958577498</v>
+      </c>
+      <c r="E26" s="16">
+        <v>27.393879650921363</v>
+      </c>
+      <c r="F26" s="16">
+        <v>1.8620479202103088</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="16">
+        <v>12.31776792757147</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0.30450000000000171</v>
+      </c>
+      <c r="J26" s="16">
+        <v>45.443665694560899</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="13">
-        <v>0.36113499570077584</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="13">
-        <v>4449.0157472838027</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="13">
-        <v>92.185039969441235</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="13">
-        <v>38.348248213293964</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="13">
-        <v>4579.910170462239</v>
+        <v>32</v>
+      </c>
+      <c r="B27" s="16">
+        <v>4.2000000000000232E-3</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="16">
+        <v>51.742053140910635</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1.0721120148446017</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0.44599012672060884</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="16">
+        <v>53.264355282475847</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="13">
-        <v>2.1129921471820268</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="13">
-        <v>512.53222676050734</v>
-      </c>
-      <c r="E28" s="13">
-        <v>873.61926755698801</v>
-      </c>
-      <c r="F28" s="13">
-        <v>86.643124076850185</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="13">
-        <v>742.29336401676699</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="13">
-        <v>2217.2009745582945</v>
+        <v>33</v>
+      </c>
+      <c r="B28" s="16">
+        <v>2.4574098671726975E-2</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="16">
+        <v>5.9607497972247012</v>
+      </c>
+      <c r="E28" s="16">
+        <v>10.160192081687772</v>
+      </c>
+      <c r="F28" s="16">
+        <v>1.0076595330137679</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="16">
+        <v>8.6328718235150017</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="16">
+        <v>25.786047334112968</v>
       </c>
     </row>
   </sheetData>

--- a/Structure/1 - Whole System/EnBalanceDataTWh.xlsx
+++ b/Structure/1 - Whole System/EnBalanceDataTWh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/1 - Whole System/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\1 - Whole System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{0D8D4337-32E8-4162-B0C8-E1B4AB140BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{11D48D4C-BCCE-431E-8310-AFA7C1AD8FB4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D7BFB7-5856-461F-A114-AD560D57EA5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B5" sqref="B5:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,7 +608,7 @@
     <col min="7" max="7" width="20.54296875" customWidth="1"/>
     <col min="8" max="8" width="12.54296875" customWidth="1"/>
     <col min="9" max="9" width="30.54296875" customWidth="1"/>
-    <col min="10" max="10" width="8.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -690,22 +690,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="16">
-        <v>4.6745616666666674</v>
+        <v>3.1205272222222225</v>
       </c>
       <c r="C5" s="16">
-        <v>615.53108596030256</v>
+        <v>626.63337215964532</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="16">
-        <v>280.55000477500158</v>
+        <v>231.83089090932188</v>
       </c>
       <c r="F5" s="16">
-        <v>8.8062796880525855</v>
+        <v>8.8606968662019359</v>
       </c>
       <c r="G5" s="16">
-        <v>58.545578904708854</v>
+        <v>61.591065590421728</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>12</v>
@@ -714,7 +714,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="16">
-        <v>968.10751099473225</v>
+        <v>932.03655274781306</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -722,31 +722,31 @@
         <v>13</v>
       </c>
       <c r="B6" s="16">
-        <v>3.9445250000000006E-7</v>
+        <v>1.9215415000000003E-5</v>
       </c>
       <c r="C6" s="16">
-        <v>70.829636781719088</v>
+        <v>82.606178897868503</v>
       </c>
       <c r="D6" s="16">
-        <v>36.943922390952331</v>
+        <v>29.295763803054928</v>
       </c>
       <c r="E6" s="16">
-        <v>163.5548468172509</v>
+        <v>110.4498806331783</v>
       </c>
       <c r="F6" s="16">
-        <v>2.8041828180497914</v>
+        <v>3.7017187571996644</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="16">
-        <v>1.1587570000000065</v>
+        <v>1.2436330000000069</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="16">
-        <v>275.29134620242468</v>
+        <v>227.29719430671639</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -757,13 +757,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="16">
-        <v>70.829636781719088</v>
+        <v>82.606178897868503</v>
       </c>
       <c r="D7" s="16">
-        <v>28.453592192940587</v>
+        <v>20.934957232202013</v>
       </c>
       <c r="E7" s="16">
-        <v>163.42200000000091</v>
+        <v>110.01088000000063</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>12</v>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="16">
-        <v>8.4903301980117476</v>
+        <v>8.3608065708529171</v>
       </c>
       <c r="E8" s="16">
-        <v>0.13284681725000075</v>
+        <v>0.43900063317767246</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>12</v>
@@ -804,7 +804,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="16">
-        <v>1.1587570000000065</v>
+        <v>1.2436330000000069</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>12</v>
@@ -818,31 +818,31 @@
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <v>-3.2058620611191593</v>
+        <v>-1.7067798691133147</v>
       </c>
       <c r="C9" s="16">
-        <v>-557.72483911165602</v>
+        <v>-582.64131245513227</v>
       </c>
       <c r="D9" s="16">
-        <v>-69.541566304379657</v>
+        <v>-58.884709566880041</v>
       </c>
       <c r="E9" s="16">
-        <v>-334.04014404809084</v>
+        <v>-235.05666247567976</v>
       </c>
       <c r="F9" s="16">
-        <v>-0.18633100199767338</v>
+        <v>-0.27359297127255439</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="16">
-        <v>-14.67571500000008</v>
+        <v>-17.097216000000095</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="16">
-        <v>-979.37445752724364</v>
+        <v>-895.66027333807813</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -853,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="16">
-        <v>-265.01750869113414</v>
+        <v>-438.44605917432654</v>
       </c>
       <c r="D10" s="16">
-        <v>-65.089763358529765</v>
+        <v>-37.651853717468718</v>
       </c>
       <c r="E10" s="16">
-        <v>-19.528064015031408</v>
+        <v>-31.125990000000176</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>12</v>
@@ -885,13 +885,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="16">
-        <v>-292.70733042052194</v>
+        <v>-144.1952532808057</v>
       </c>
       <c r="D11" s="16">
-        <v>-4.4518029458498924</v>
+        <v>-21.232855849411322</v>
       </c>
       <c r="E11" s="16">
-        <v>-314.51208003305942</v>
+        <v>-203.93067247567956</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>12</v>
@@ -900,7 +900,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="16">
-        <v>-14.67571500000008</v>
+        <v>-17.097216000000095</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>12</v>
@@ -920,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="16">
-        <v>-11.660123435982793</v>
+        <v>-11.141850362931867</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>12</v>
@@ -938,7 +938,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="16">
-        <v>-11.660123435982793</v>
+        <v>-11.141850362931867</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="16">
-        <v>0.52160412830164971</v>
+        <v>-0.16522394350497532</v>
       </c>
       <c r="D13" s="16">
-        <v>0.52009219602833945</v>
+        <v>-1.1293755709273814</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>12</v>
@@ -970,7 +970,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="16">
-        <v>1.0416963243299893</v>
+        <v>-1.2945995144323568</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -978,31 +978,31 @@
         <v>19</v>
       </c>
       <c r="B14" s="16">
-        <v>1.4687000000000083</v>
+        <v>1.4137665685239078</v>
       </c>
       <c r="C14" s="16">
-        <v>129.15748775866732</v>
+        <v>126.43301465887659</v>
       </c>
       <c r="D14" s="16">
-        <v>-43.737675153381772</v>
+        <v>-41.860171697684365</v>
       </c>
       <c r="E14" s="16">
-        <v>110.06470754416166</v>
+        <v>107.2241090668204</v>
       </c>
       <c r="F14" s="16">
-        <v>11.417547369758495</v>
+        <v>12.289030690042313</v>
       </c>
       <c r="G14" s="16">
-        <v>58.545578904708854</v>
+        <v>61.591065590421728</v>
       </c>
       <c r="H14" s="16">
-        <v>-13.516958000000074</v>
+        <v>-15.853583000000089</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="16">
-        <v>253.39938842391447</v>
+        <v>251.23723187700048</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="16">
-        <v>-1.307264352388254E-2</v>
+        <v>-2.913300525726514E-2</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="J15" s="16">
-        <v>-1.307264352388254E-2</v>
+        <v>-2.913300525726514E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1042,31 +1042,31 @@
         <v>21</v>
       </c>
       <c r="B16" s="16">
-        <v>1.4687000000000083</v>
+        <v>1.4137665685239078</v>
       </c>
       <c r="C16" s="16">
-        <v>129.15748775866729</v>
+        <v>126.43301465887659</v>
       </c>
       <c r="D16" s="16">
-        <v>-43.750747796905657</v>
+        <v>-41.889304702941629</v>
       </c>
       <c r="E16" s="16">
-        <v>110.06470754416171</v>
+        <v>107.2241090668204</v>
       </c>
       <c r="F16" s="16">
-        <v>11.417547369758495</v>
+        <v>12.289030690042313</v>
       </c>
       <c r="G16" s="16">
-        <v>58.545578904708854</v>
+        <v>61.591065590421728</v>
       </c>
       <c r="H16" s="16">
-        <v>-13.516958000000074</v>
+        <v>-15.853583000000084</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="16">
-        <v>253.38631578039059</v>
+        <v>251.20809887174323</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1077,10 +1077,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="16">
-        <v>-22.451494338580147</v>
+        <v>-12.501715521009565</v>
       </c>
       <c r="D17" s="16">
-        <v>22.451494338580147</v>
+        <v>12.501715521009565</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>12</v>
@@ -1089,10 +1089,10 @@
         <v>12</v>
       </c>
       <c r="G17" s="16">
-        <v>-24.338943105260235</v>
+        <v>-28.048990781878025</v>
       </c>
       <c r="H17" s="16">
-        <v>24.338943105260235</v>
+        <v>28.048990781878025</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>12</v>
@@ -1109,28 +1109,28 @@
         <v>0</v>
       </c>
       <c r="C18" s="16">
-        <v>-106.70599342008714</v>
+        <v>-113.93129913786703</v>
       </c>
       <c r="D18" s="16">
-        <v>103.98144433978463</v>
+        <v>111.54796305134606</v>
       </c>
       <c r="E18" s="16">
-        <v>-17.193627752413541</v>
+        <v>-14.335480930234691</v>
       </c>
       <c r="F18" s="16">
-        <v>-6.3344473697584673</v>
+        <v>-7.2149229952422855</v>
       </c>
       <c r="G18" s="16">
-        <v>-34.206635799448613</v>
+        <v>-33.542074808543703</v>
       </c>
       <c r="H18" s="16">
-        <v>23.897452188063106</v>
+        <v>21.920440800808603</v>
       </c>
       <c r="I18" s="16">
-        <v>1.3822482062700183</v>
+        <v>1.3999438279598879</v>
       </c>
       <c r="J18" s="16">
-        <v>-35.179559607590008</v>
+        <v>-34.155430191773164</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1144,25 +1144,25 @@
         <v>12</v>
       </c>
       <c r="D19" s="16">
-        <v>-1.4212096151978155</v>
+        <v>-0.67755227827780995</v>
       </c>
       <c r="E19" s="16">
-        <v>-15.077458364904054</v>
+        <v>-12.388838481439848</v>
       </c>
       <c r="F19" s="16">
-        <v>-6.2010591012545815</v>
+        <v>-7.0638281717149818</v>
       </c>
       <c r="G19" s="16">
-        <v>-34.206635799448613</v>
+        <v>-33.542074808543703</v>
       </c>
       <c r="H19" s="16">
-        <v>23.897452188063106</v>
+        <v>21.920440800808603</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J19" s="16">
-        <v>-33.008910692741964</v>
+        <v>-31.75185293916774</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1173,10 +1173,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="16">
-        <v>-106.70599342008714</v>
+        <v>-113.93129913786703</v>
       </c>
       <c r="D20" s="16">
-        <v>106.12748966135011</v>
+        <v>112.93200211077611</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>12</v>
@@ -1194,7 +1194,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="16">
-        <v>-0.57850375873702375</v>
+        <v>-0.99929702709092094</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1208,13 +1208,13 @@
         <v>12</v>
       </c>
       <c r="D21" s="16">
-        <v>-0.72483570636766514</v>
+        <v>-0.7064867811522495</v>
       </c>
       <c r="E21" s="16">
-        <v>-2.1161693875094882</v>
+        <v>-1.9466424487948419</v>
       </c>
       <c r="F21" s="16">
-        <v>-0.13338826850388569</v>
+        <v>-0.15109482352730361</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>12</v>
@@ -1223,10 +1223,10 @@
         <v>12</v>
       </c>
       <c r="I21" s="16">
-        <v>1.3822482062700183</v>
+        <v>1.3999438279598879</v>
       </c>
       <c r="J21" s="16">
-        <v>-1.5921451561110209</v>
+        <v>-1.4042802255145073</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -1240,10 +1240,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="16">
-        <v>6.7670684861746873</v>
+        <v>6.6171786214342356</v>
       </c>
       <c r="E22" s="16">
-        <v>43.747276896362408</v>
+        <v>44.586344067420633</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>12</v>
@@ -1252,13 +1252,13 @@
         <v>12</v>
       </c>
       <c r="H22" s="16">
-        <v>5.0080544236480504</v>
+        <v>4.7346759550306308</v>
       </c>
       <c r="I22" s="16">
-        <v>0.35534820627001246</v>
+        <v>0.26472901555988154</v>
       </c>
       <c r="J22" s="16">
-        <v>55.877748012455157</v>
+        <v>56.202927659445372</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1266,31 +1266,31 @@
         <v>28</v>
       </c>
       <c r="B23" s="16">
-        <v>1.4687000000000083</v>
+        <v>1.4137665685239078</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="16">
-        <v>75.915122395284428</v>
+        <v>75.543195247979753</v>
       </c>
       <c r="E23" s="16">
-        <v>49.123802895385744</v>
+        <v>48.302284069165083</v>
       </c>
       <c r="F23" s="16">
-        <v>5.0831000000000284</v>
+        <v>5.0741076948000279</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="16">
-        <v>29.711382869675216</v>
+        <v>29.381172627655911</v>
       </c>
       <c r="I23" s="16">
-        <v>1.0269000000000059</v>
+        <v>1.1352148124000063</v>
       </c>
       <c r="J23" s="16">
-        <v>162.32900816034544</v>
+        <v>160.84974102052468</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -1304,10 +1304,10 @@
         <v>12</v>
       </c>
       <c r="D24" s="16">
-        <v>13.086829058575612</v>
+        <v>11.788424337791101</v>
       </c>
       <c r="E24" s="16">
-        <v>0.68923897058823913</v>
+        <v>0.66855475091770999</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>12</v>
@@ -1319,10 +1319,10 @@
         <v>12</v>
       </c>
       <c r="I24" s="16">
-        <v>0.61196942675159571</v>
+        <v>0.71451678042992628</v>
       </c>
       <c r="J24" s="16">
-        <v>14.388037455915448</v>
+        <v>13.171495869138736</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -1330,31 +1330,31 @@
         <v>30</v>
       </c>
       <c r="B25" s="16">
-        <v>0.93472590132827826</v>
+        <v>0.88381730663183966</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="16">
-        <v>2.0651202027157507</v>
+        <v>2.1305390795242878</v>
       </c>
       <c r="E25" s="16">
-        <v>10.88049219218836</v>
+        <v>10.15050730022606</v>
       </c>
       <c r="F25" s="16">
-        <v>1.1412805319313502</v>
+        <v>1.0135518518331394</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="16">
-        <v>8.3147529918681347</v>
+        <v>8.3557967750207016</v>
       </c>
       <c r="I25" s="16">
-        <v>0.11043057324840824</v>
+        <v>0.11258476733007844</v>
       </c>
       <c r="J25" s="16">
-        <v>23.446802393280283</v>
+        <v>22.646797080566106</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -1362,31 +1362,31 @@
         <v>31</v>
       </c>
       <c r="B26" s="16">
-        <v>0.50510000000000288</v>
+        <v>0.50514688031000288</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="16">
-        <v>3.0603701958577498</v>
+        <v>3.112511228336531</v>
       </c>
       <c r="E26" s="16">
-        <v>27.393879650921363</v>
+        <v>27.540897887447574</v>
       </c>
       <c r="F26" s="16">
-        <v>1.8620479202103088</v>
+        <v>1.6989296165510615</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="16">
-        <v>12.31776792757147</v>
+        <v>11.921672229129697</v>
       </c>
       <c r="I26" s="16">
-        <v>0.30450000000000171</v>
+        <v>0.30811326459000166</v>
       </c>
       <c r="J26" s="16">
-        <v>45.443665694560899</v>
+        <v>45.087271106364867</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -1394,31 +1394,31 @@
         <v>32</v>
       </c>
       <c r="B27" s="16">
-        <v>4.2000000000000232E-3</v>
+        <v>4.2468568199000231E-3</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="16">
-        <v>51.742053140910635</v>
+        <v>52.297466526063438</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="16">
-        <v>1.0721120148446017</v>
+        <v>1.3453944686778485</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="16">
-        <v>0.44599012672060884</v>
+        <v>0.49759336949014193</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J27" s="16">
-        <v>53.264355282475847</v>
+        <v>54.144701221051321</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -1426,31 +1426,31 @@
         <v>33</v>
       </c>
       <c r="B28" s="16">
-        <v>2.4574098671726975E-2</v>
+        <v>2.0555524762165558E-2</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="16">
-        <v>5.9607497972247012</v>
+        <v>6.214254076264397</v>
       </c>
       <c r="E28" s="16">
-        <v>10.160192081687772</v>
+        <v>9.9423241305737324</v>
       </c>
       <c r="F28" s="16">
-        <v>1.0076595330137679</v>
+        <v>1.0162317577379791</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="16">
-        <v>8.6328718235150017</v>
+        <v>8.6061102540153698</v>
       </c>
       <c r="I28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="16">
-        <v>25.786047334112968</v>
+        <v>25.799475743353646</v>
       </c>
     </row>
   </sheetData>

--- a/Structure/1 - Whole System/EnBalanceDataTWh.xlsx
+++ b/Structure/1 - Whole System/EnBalanceDataTWh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\1 - Whole System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D7BFB7-5856-461F-A114-AD560D57EA5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19BCFA4-5DB7-4370-8D54-1363111E6FB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15460" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -135,10 +129,10 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Aggregate energy balance (TWh), Scotland, 2018</t>
-  </si>
-  <si>
     <t>TWh</t>
+  </si>
+  <si>
+    <t>Aggregate energy balance (TWh), Scotland, 2019</t>
   </si>
 </sst>
 </file>
@@ -593,9 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E34935-EB74-4926-BE8C-7B40FCC27029}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -613,7 +605,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -637,7 +629,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -690,22 +682,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="16">
-        <v>3.1205272222222225</v>
+        <v>3.1168400000000003</v>
       </c>
       <c r="C5" s="16">
-        <v>626.63337215964532</v>
+        <v>626.63603000000012</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="16">
-        <v>231.83089090932188</v>
+        <v>231.83242000000004</v>
       </c>
       <c r="F5" s="16">
-        <v>8.8606968662019359</v>
+        <v>8.8620600000000014</v>
       </c>
       <c r="G5" s="16">
-        <v>61.591065590421728</v>
+        <v>61.592480000000009</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>12</v>
@@ -714,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="16">
-        <v>932.03655274781306</v>
+        <v>932.03983000000017</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -722,31 +714,31 @@
         <v>13</v>
       </c>
       <c r="B6" s="16">
-        <v>1.9215415000000003E-5</v>
+        <v>0</v>
       </c>
       <c r="C6" s="16">
-        <v>82.606178897868503</v>
+        <v>82.607890000000012</v>
       </c>
       <c r="D6" s="16">
-        <v>29.295763803054928</v>
+        <v>29.295970000000004</v>
       </c>
       <c r="E6" s="16">
-        <v>110.4498806331783</v>
+        <v>110.45011000000001</v>
       </c>
       <c r="F6" s="16">
-        <v>3.7017187571996644</v>
+        <v>3.6983400000000004</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="16">
-        <v>1.2436330000000069</v>
+        <v>1.2444100000000002</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="16">
-        <v>227.29719430671639</v>
+        <v>227.29672000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -757,13 +749,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="16">
-        <v>82.606178897868503</v>
+        <v>82.607890000000012</v>
       </c>
       <c r="D7" s="16">
-        <v>20.934957232202013</v>
+        <v>20.934000000000001</v>
       </c>
       <c r="E7" s="16">
-        <v>110.01088000000063</v>
+        <v>110.00817000000001</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>12</v>
@@ -792,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="16">
-        <v>8.3608065708529171</v>
+        <v>8.3619700000000012</v>
       </c>
       <c r="E8" s="16">
-        <v>0.43900063317767246</v>
+        <v>0.44194000000000006</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>12</v>
@@ -804,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="16">
-        <v>1.2436330000000069</v>
+        <v>1.2444100000000002</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>12</v>
@@ -818,31 +810,31 @@
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <v>-1.7067798691133147</v>
+        <v>-1.7096100000000003</v>
       </c>
       <c r="C9" s="16">
-        <v>-582.64131245513227</v>
+        <v>-582.63974000000007</v>
       </c>
       <c r="D9" s="16">
-        <v>-58.884709566880041</v>
+        <v>-58.882690000000011</v>
       </c>
       <c r="E9" s="16">
-        <v>-235.05666247567976</v>
+        <v>-235.05393000000004</v>
       </c>
       <c r="F9" s="16">
-        <v>-0.27359297127255439</v>
+        <v>-0.27912000000000003</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="16">
-        <v>-17.097216000000095</v>
+        <v>-17.096100000000003</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="16">
-        <v>-895.66027333807813</v>
+        <v>-895.66119000000015</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -853,13 +845,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="16">
-        <v>-438.44605917432654</v>
+        <v>-438.45100000000008</v>
       </c>
       <c r="D10" s="16">
-        <v>-37.651853717468718</v>
+        <v>-37.646310000000007</v>
       </c>
       <c r="E10" s="16">
-        <v>-31.125990000000176</v>
+        <v>-31.121880000000004</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>12</v>
@@ -885,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="16">
-        <v>-144.1952532808057</v>
+        <v>-144.20037000000002</v>
       </c>
       <c r="D11" s="16">
-        <v>-21.232855849411322</v>
+        <v>-21.236380000000004</v>
       </c>
       <c r="E11" s="16">
-        <v>-203.93067247567956</v>
+        <v>-203.93205000000003</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>12</v>
@@ -900,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="16">
-        <v>-17.097216000000095</v>
+        <v>-17.096100000000003</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>12</v>
@@ -920,7 +912,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="16">
-        <v>-11.141850362931867</v>
+        <v>-11.141540000000001</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>12</v>
@@ -938,7 +930,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="16">
-        <v>-11.141850362931867</v>
+        <v>-11.141540000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -949,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="16">
-        <v>-0.16522394350497532</v>
+        <v>-0.16282000000000002</v>
       </c>
       <c r="D13" s="16">
-        <v>-1.1293755709273814</v>
+        <v>-1.1281100000000002</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>12</v>
@@ -970,7 +962,7 @@
         <v>12</v>
       </c>
       <c r="J13" s="16">
-        <v>-1.2945995144323568</v>
+        <v>-1.2909300000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -978,31 +970,31 @@
         <v>19</v>
       </c>
       <c r="B14" s="16">
-        <v>1.4137665685239078</v>
+        <v>1.4188600000000002</v>
       </c>
       <c r="C14" s="16">
-        <v>126.43301465887659</v>
+        <v>126.42973000000002</v>
       </c>
       <c r="D14" s="16">
-        <v>-41.860171697684365</v>
+        <v>-41.856370000000005</v>
       </c>
       <c r="E14" s="16">
-        <v>107.2241090668204</v>
+        <v>107.22860000000001</v>
       </c>
       <c r="F14" s="16">
-        <v>12.289030690042313</v>
+        <v>12.292910000000001</v>
       </c>
       <c r="G14" s="16">
-        <v>61.591065590421728</v>
+        <v>61.592480000000009</v>
       </c>
       <c r="H14" s="16">
-        <v>-15.853583000000089</v>
+        <v>-15.851690000000001</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="16">
-        <v>251.23723187700048</v>
+        <v>251.24289000000005</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1016,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="16">
-        <v>-2.913300525726514E-2</v>
+        <v>-3.4890000000000004E-2</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1034,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="J15" s="16">
-        <v>-2.913300525726514E-2</v>
+        <v>-3.4890000000000004E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1042,31 +1034,31 @@
         <v>21</v>
       </c>
       <c r="B16" s="16">
-        <v>1.4137665685239078</v>
+        <v>1.4188600000000002</v>
       </c>
       <c r="C16" s="16">
-        <v>126.43301465887659</v>
+        <v>126.42973000000002</v>
       </c>
       <c r="D16" s="16">
-        <v>-41.889304702941629</v>
+        <v>-41.891260000000003</v>
       </c>
       <c r="E16" s="16">
-        <v>107.2241090668204</v>
+        <v>107.22860000000001</v>
       </c>
       <c r="F16" s="16">
-        <v>12.289030690042313</v>
+        <v>12.292910000000001</v>
       </c>
       <c r="G16" s="16">
-        <v>61.591065590421728</v>
+        <v>61.592480000000009</v>
       </c>
       <c r="H16" s="16">
-        <v>-15.853583000000084</v>
+        <v>-15.851690000000001</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="16">
-        <v>251.20809887174323</v>
+        <v>251.20800000000003</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1077,10 +1069,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="16">
-        <v>-12.501715521009565</v>
+        <v>-12.502250000000002</v>
       </c>
       <c r="D17" s="16">
-        <v>12.501715521009565</v>
+        <v>12.502250000000002</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>12</v>
@@ -1089,10 +1081,10 @@
         <v>12</v>
       </c>
       <c r="G17" s="16">
-        <v>-28.048990781878025</v>
+        <v>-28.051560000000002</v>
       </c>
       <c r="H17" s="16">
-        <v>28.048990781878025</v>
+        <v>28.051560000000002</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>12</v>
@@ -1109,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="C18" s="16">
-        <v>-113.93129913786703</v>
+        <v>-113.92748000000002</v>
       </c>
       <c r="D18" s="16">
-        <v>111.54796305134606</v>
+        <v>111.54333000000001</v>
       </c>
       <c r="E18" s="16">
-        <v>-14.335480930234691</v>
+        <v>-14.339790000000002</v>
       </c>
       <c r="F18" s="16">
-        <v>-7.2149229952422855</v>
+        <v>-7.2106000000000012</v>
       </c>
       <c r="G18" s="16">
-        <v>-33.542074808543703</v>
+        <v>-33.540920000000007</v>
       </c>
       <c r="H18" s="16">
-        <v>21.920440800808603</v>
+        <v>21.922550000000001</v>
       </c>
       <c r="I18" s="16">
-        <v>1.3999438279598879</v>
+        <v>1.3956000000000002</v>
       </c>
       <c r="J18" s="16">
-        <v>-34.155430191773164</v>
+        <v>-34.157310000000003</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -1144,25 +1136,25 @@
         <v>12</v>
       </c>
       <c r="D19" s="16">
-        <v>-0.67755227827780995</v>
+        <v>-0.67454000000000014</v>
       </c>
       <c r="E19" s="16">
-        <v>-12.388838481439848</v>
+        <v>-12.385950000000001</v>
       </c>
       <c r="F19" s="16">
-        <v>-7.0638281717149818</v>
+        <v>-7.0594100000000006</v>
       </c>
       <c r="G19" s="16">
-        <v>-33.542074808543703</v>
+        <v>-33.540920000000007</v>
       </c>
       <c r="H19" s="16">
-        <v>21.920440800808603</v>
+        <v>21.922550000000001</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J19" s="16">
-        <v>-31.75185293916774</v>
+        <v>-31.749900000000004</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -1173,10 +1165,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="16">
-        <v>-113.93129913786703</v>
+        <v>-113.92748000000002</v>
       </c>
       <c r="D20" s="16">
-        <v>112.93200211077611</v>
+        <v>112.92730000000002</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>12</v>
@@ -1194,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="16">
-        <v>-0.99929702709092094</v>
+        <v>-1.0001800000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
@@ -1208,13 +1200,13 @@
         <v>12</v>
       </c>
       <c r="D21" s="16">
-        <v>-0.7064867811522495</v>
+        <v>-0.70943000000000012</v>
       </c>
       <c r="E21" s="16">
-        <v>-1.9466424487948419</v>
+        <v>-1.9422100000000002</v>
       </c>
       <c r="F21" s="16">
-        <v>-0.15109482352730361</v>
+        <v>-0.15119000000000002</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>12</v>
@@ -1223,10 +1215,10 @@
         <v>12</v>
       </c>
       <c r="I21" s="16">
-        <v>1.3999438279598879</v>
+        <v>1.3956000000000002</v>
       </c>
       <c r="J21" s="16">
-        <v>-1.4042802255145073</v>
+        <v>-1.4072300000000002</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
@@ -1240,10 +1232,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="16">
-        <v>6.6171786214342356</v>
+        <v>6.6174700000000009</v>
       </c>
       <c r="E22" s="16">
-        <v>44.586344067420633</v>
+        <v>44.589420000000004</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>12</v>
@@ -1252,13 +1244,13 @@
         <v>12</v>
       </c>
       <c r="H22" s="16">
-        <v>4.7346759550306308</v>
+        <v>4.733410000000001</v>
       </c>
       <c r="I22" s="16">
-        <v>0.26472901555988154</v>
+        <v>0.26749000000000001</v>
       </c>
       <c r="J22" s="16">
-        <v>56.202927659445372</v>
+        <v>56.20779000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
@@ -1266,31 +1258,31 @@
         <v>28</v>
       </c>
       <c r="B23" s="16">
-        <v>1.4137665685239078</v>
+        <v>1.4188600000000002</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="16">
-        <v>75.543195247979753</v>
+        <v>75.548480000000012</v>
       </c>
       <c r="E23" s="16">
-        <v>48.302284069165083</v>
+        <v>48.299390000000002</v>
       </c>
       <c r="F23" s="16">
-        <v>5.0741076948000279</v>
+        <v>5.0706800000000003</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="16">
-        <v>29.381172627655911</v>
+        <v>29.377380000000002</v>
       </c>
       <c r="I23" s="16">
-        <v>1.1352148124000063</v>
+        <v>1.1397400000000002</v>
       </c>
       <c r="J23" s="16">
-        <v>160.84974102052468</v>
+        <v>160.85453000000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
@@ -1304,10 +1296,10 @@
         <v>12</v>
       </c>
       <c r="D24" s="16">
-        <v>11.788424337791101</v>
+        <v>11.792820000000001</v>
       </c>
       <c r="E24" s="16">
-        <v>0.66855475091770999</v>
+        <v>0.66291000000000011</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>12</v>
@@ -1319,10 +1311,10 @@
         <v>12</v>
       </c>
       <c r="I24" s="16">
-        <v>0.71451678042992628</v>
+        <v>0.70943000000000012</v>
       </c>
       <c r="J24" s="16">
-        <v>13.171495869138736</v>
+        <v>13.176790000000002</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
@@ -1330,31 +1322,31 @@
         <v>30</v>
       </c>
       <c r="B25" s="16">
-        <v>0.88381730663183966</v>
+        <v>0.88388000000000011</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="16">
-        <v>2.1305390795242878</v>
+        <v>2.1282900000000002</v>
       </c>
       <c r="E25" s="16">
-        <v>10.15050730022606</v>
+        <v>10.152990000000001</v>
       </c>
       <c r="F25" s="16">
-        <v>1.0135518518331394</v>
+        <v>1.0118100000000001</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="16">
-        <v>8.3557967750207016</v>
+        <v>8.350340000000001</v>
       </c>
       <c r="I25" s="16">
-        <v>0.11258476733007844</v>
+        <v>0.11630000000000001</v>
       </c>
       <c r="J25" s="16">
-        <v>22.646797080566106</v>
+        <v>22.643610000000002</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -1362,31 +1354,31 @@
         <v>31</v>
       </c>
       <c r="B26" s="16">
-        <v>0.50514688031000288</v>
+        <v>0.50009000000000003</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="16">
-        <v>3.112511228336531</v>
+        <v>3.1168400000000003</v>
       </c>
       <c r="E26" s="16">
-        <v>27.540897887447574</v>
+        <v>27.539840000000005</v>
       </c>
       <c r="F26" s="16">
-        <v>1.6989296165510615</v>
+        <v>1.6979800000000003</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="16">
-        <v>11.921672229129697</v>
+        <v>11.920750000000002</v>
       </c>
       <c r="I26" s="16">
-        <v>0.30811326459000166</v>
+        <v>0.30238000000000004</v>
       </c>
       <c r="J26" s="16">
-        <v>45.087271106364867</v>
+        <v>45.089510000000004</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -1394,31 +1386,31 @@
         <v>32</v>
       </c>
       <c r="B27" s="16">
-        <v>4.2468568199000231E-3</v>
+        <v>0</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="16">
-        <v>52.297466526063438</v>
+        <v>52.300110000000004</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="16">
-        <v>1.3453944686778485</v>
+        <v>1.3490800000000003</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="16">
-        <v>0.49759336949014193</v>
+        <v>0.50009000000000003</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J27" s="16">
-        <v>54.144701221051321</v>
+        <v>54.149280000000005</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -1426,31 +1418,31 @@
         <v>33</v>
       </c>
       <c r="B28" s="16">
-        <v>2.0555524762165558E-2</v>
+        <v>2.3260000000000003E-2</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="16">
-        <v>6.214254076264397</v>
+        <v>6.2104200000000009</v>
       </c>
       <c r="E28" s="16">
-        <v>9.9423241305737324</v>
+        <v>9.9436500000000017</v>
       </c>
       <c r="F28" s="16">
-        <v>1.0162317577379791</v>
+        <v>1.0118100000000001</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="16">
-        <v>8.6061102540153698</v>
+        <v>8.6062000000000012</v>
       </c>
       <c r="I28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="16">
-        <v>25.799475743353646</v>
+        <v>25.795340000000003</v>
       </c>
     </row>
   </sheetData>
